--- a/APM files/142307256/142307256 EXPORT RT&RP Cloud Export_Clone.xlsx
+++ b/APM files/142307256/142307256 EXPORT RT&RP Cloud Export_Clone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/142307256/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3ADE51-90A2-514B-A439-E6EF51B2E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47CC26C-49ED-2F4E-BBCE-140CE17D1917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7000" yWindow="5560" windowWidth="24300" windowHeight="14800" xr2:uid="{2547B3A6-92DE-4DC7-BA33-295CE429FBF9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Rate Plan Pricing Model</t>
+  </si>
+  <si>
+    <t>Room Type Name</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -302,6 +305,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,364 +620,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C0776E-D31D-4196-98AA-2098101953BE}">
-  <dimension ref="A1:BA48"/>
+  <dimension ref="A1:BB48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="29" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="5"/>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB1" s="5"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>114831936</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:53" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-    </row>
-    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
